--- a/biology/Zoologie/L'Âge_de_glace_3___Le_Temps_des_dinosaures/L'Âge_de_glace_3___Le_Temps_des_dinosaures.xlsx
+++ b/biology/Zoologie/L'Âge_de_glace_3___Le_Temps_des_dinosaures/L'Âge_de_glace_3___Le_Temps_des_dinosaures.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>L%27%C3%82ge_de_glace_3_:_Le_Temps_des_dinosaures</t>
+          <t>L'Âge_de_glace_3_:_Le_Temps_des_dinosaures</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Âge de glace 3 : Le Temps des dinosaures ou L'ère de glace : L'aube des dinosaures au Québec (Ice Age 3: Dawn of the Dinosaurs), est un film d'animation américain réalisé par Carlos Saldanha et co-réalisé par Michael Thurmeier. Le scénario, conçu par Michael Berg (en), Peter Ackerman, Mike Reiss et par Yoni Brenner, est basé sur une histoire originale de Jason Carter Eaton. Il est sorti en 2009. Troisième film de la série L’Âge de glace, il est suivi par L'Âge de glace 4 : La Dérive des continents.
 Annoncé par le président de la Fox, Hutch Parker, le 30 janvier 2007, il était initialement prévu pour sortir le 12 décembre 2008, mais a été reporté en juillet 2009. Le film a été montré en avant-première dans certains cinémas pour la Fête des pères aux États-Unis (Father's Day).
-Les « héros givrés » sont de retour pour une aventure incroyable. Scrat court toujours derrière son gland, et cette fois-ci il rencontre l'amour, Manny et Ellie sont très anxieux car ils vont avoir leur premier enfant, Diego quitte le groupe car il pense que ses facultés de chasseur s'amenuisent au fur et à mesure qu'il reste avec eux, et Sid le paresseux s'attire des ennuis en volant des œufs d'une tyrannosaure qui l'enlève. Dans un périple pour sauver Sid, le gang se retrouve dans un mystérieux monde souterrain, où vivent encore des dinosaures. Ils devront lutter contre la faune et la flore, et ils rencontreront Buck, une belette borgne excentrique aux airs d'Indiana Jones qui va les aider à sauver Sid. Mais une créature bien plus grosse que  la mère tyrannosaure, que Buck appelle Rudy (un Baryonyx[1]) les poursuit.
+Les « héros givrés » sont de retour pour une aventure incroyable. Scrat court toujours derrière son gland, et cette fois-ci il rencontre l'amour, Manny et Ellie sont très anxieux car ils vont avoir leur premier enfant, Diego quitte le groupe car il pense que ses facultés de chasseur s'amenuisent au fur et à mesure qu'il reste avec eux, et Sid le paresseux s'attire des ennuis en volant des œufs d'une tyrannosaure qui l'enlève. Dans un périple pour sauver Sid, le gang se retrouve dans un mystérieux monde souterrain, où vivent encore des dinosaures. Ils devront lutter contre la faune et la flore, et ils rencontreront Buck, une belette borgne excentrique aux airs d'Indiana Jones qui va les aider à sauver Sid. Mais une créature bien plus grosse que  la mère tyrannosaure, que Buck appelle Rudy (un Baryonyx) les poursuit.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>L%27%C3%82ge_de_glace_3_:_Le_Temps_des_dinosaures</t>
+          <t>L'Âge_de_glace_3_:_Le_Temps_des_dinosaures</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les mammouths Manny et Ellie attendent leur premier enfant. La perspective de devenir père amène Manny à construire une aire de jeux pour le petit, en essayant de la rendre aussi sûre que possible. La nouvelle situation conduit Diego à se sentir bien seul, et il envisage sérieusement de quitter le groupe, se sentant perdre de sa vigueur devant cette vie trop tranquille. Sid en reste songeur, et part de son côté en se demandant comment il pourrait fonder sa propre famille. Quand il marche sur une mince couche de glace, celle-ci se rompt en le faisant tomber dans un gigantesque tunnel souterrain. Il y trouve trois grands œufs apparemment abandonnés. N'ayant reçu aucune réponse à ses appels, Sid décide de les prendre en charge, conduit par un instinct maternel soudain et par un désir incontrôlable de construire une famille. Il dirige vers la sortie du tunnel les trois œufs à qui il donne des noms : Mimosa, Cocotte et Titeuf (original Eggbert, Shelly et Yoko). Il manque rapidement d'en détruire un. Ayant pris conscience de la situation, Manny et Ellie cherchent à convaincre Sid de ramener les œufs là où il les a découverts, convaincus que leur mère doit les chercher partout, mais le paresseux ne veut pas renoncer à ceux qu'il appelle déjà « mes petits ». Pourtant, une masse gigantesque trouve le trou laissé par Sid et pousse un rugissement.
 Au même moment, naissent de ces œufs des petits dinosaures, aussi gros que Sid, ne sachant dire que « maman ». Les petits, quoique très affectueux, vont se montrer fauteurs de troubles, mais Sid, prenant très au sérieux son rôle de mère, essaie de les protéger et de leur donner de bons enseignements, même de leur inculquer le régime végétarien sain (avec des résultats médiocres). Ils détruisent l'aire de jeux installée par Manny, provoquant sa colère. Mais soudain, la terre se met à trembler et tous peuvent entendre des rugissements, appartenant à une féroce femelle T-rex. Après un moment de stupéfaction, Manny comprend qu'elle est la mère des petits et le crie à Sid, mais celui-ci ne veut toujours pas qu'ils partent. La tyrannosaure le coince avec les bébés et il la met au défi de lui passer sur le corps pour les lui prendre. En réponse, le dinosaure s'empare de lui et des petits, et les emporte avec lui. Témoins de la scène, Manny, Ellie, Crash et Eddie, et Diego, décident de sauver Sid. Malgré la tentative de Manny de convaincre Ellie de ne pas participer à l'expédition, comme elle a atteint le stade terminal de sa grossesse, le groupe suit les traces du T-rex pour atteindre la caverne souterraine. Au bout de celle-ci, ils traversent un gigantesque squelette qui fait office de pont.
@@ -524,49 +538,86 @@
 D'autant qu'il affirme que la Bête rôde, qu'il appelle Rudy ou la Chose, plus grande qu'un tyrannosaure, et que c'est elle qui lui a crevé l'œil. Crash et Eddie sont fascinés par ce discours, mais Manny n'en tient pas compte et le traite de fou. Ils continuent sans lui, mais après avoir atteint la jungle du malheur, Manny et Diego sont la proie d'une grande plante carnivore, de laquelle ils sont sauvés une fois de plus par Buck.
 Sid est relâché avec les petits dinosaures dans la caverne de la T-rex, laquelle tente aussitôt de le dévorer. Mais les petits finissent par s'interposer. Il continue de rivaliser avec la maman T-rex en ce qui concerne leur éducation, et entre les deux naît une forme de compréhension. De son côté, ayant gagné en crédibilité auprès des autres, Buck les guide dans le gouffre de la mort, une grande crevasse qui exhale un gaz mortel. Ellie traverse la première avec Buck sur une cage thoracique de dinosaure tractée avec des lianes. Lorsque les autres traversent, la cage s'immobilise au centre du gouffre. Tous sont victimes du gaz hilarant, y compris Buck qui se fait chatouiller en plein sauvetage. C'est Ellie qui tire la cage thoracique en abattant l'arbre auquel elle est reliée. Pendant ce temps, la T-rex fuit quelque chose, d'après les empreintes, de bien plus gros qu'elle. Le soir, Buck explique au groupe comment il a eu le bandage sur son œil droit, à la suite d'un coup infligé par l'une des griffes géantes de Rudy. De cette mésaventure, la belette garde une dent prise au dinosaure quand celui-ci a essayé de le dévorer, et l'utilise comme un sabre.
 Ils atteignent finalement la dernière étape, les falaises de l'effroi. Ellie commence à avoir des contractions et est forcée de s'arrêter. Elle a été repérée par des féroces guanlongs, qui provoquent un éboulement. Manny et Diego décident de rester protéger Ellie. Le groupe se divise, ne laissant que Buck et les opossums Crash et Eddie pour sauver Sid. Celui-ci, séparé de la famille tyrannosaure, est en bien mauvaise posture car il se fait attaquer par Rudy. Il n'a d'autre choix que de se placer sur un rocher glissant au milieu de la rivière de lave, vers les chutes de lave. Les trois compagnons chevauchent un ptéranodon et sèment un troupeau de sauvages quetzalcoatlus (autre créature volante comme le ptéranodon) pour sauver Sid juste à temps. Pendant ce temps, Diego et Manny ont vaincu les guanlongs, tandis qu'Ellie donne naissance à la petite fille que elle et Manny nomment Pêche. Le groupe se rassemble avec Sid et, à nouveau dirigé par Buck, se prépare à retourner dans son monde. Mais Rudy, le féroce rival de Buck, les attend devant la grotte et se révèle être un baryonyx albinos. Buck l'attire de son côté et manque de se faire dévorer. Le groupe parvient à immobiliser le dinosaure en l'attachant avec des lianes. Au moment de partir, Sid tombe sur une des lianes, libérant Rudy furieux. Il se jette sur Sid pour le dévorer, mais la maman T-rex intervient et le pousse violemment jusqu’à le jeter dans une crevasse d’où le dinosaure albinos disparait. Sid est maintenant prêt à faire ses adieux aux trois petits tyrannosaures et à leur mère légitime, et il les salue avec tristesse. Buck, désormais convaincu de la mort de Rudy, sait qu'aucune raison valable ne le retient dans ce monde, de sorte qu'il accepte l'invitation de se joindre à eux et revenir à la surface. Mais sur le point d'atteindre la sortie, Buck entend le rugissement de Rudy et décide de rester, donnant comme excuse qu'il doit veiller à ce qu'aucune créature ne quitte ce "monde-du-dessous" ; puis il détruit le pont entre le monde des glaces et le monde des dinosaures.
-Scrat
-Le film commence avec l'écureuil Scrat qui trouve son gland sur un rocher. Il l'atteint mais découvre cependant que le gland est parti, et le « voleur » s'avère être Scratina, une écureuil palmiste. Scrat est fasciné par sa beauté, mais quand il voit qu'elle a pris le gland, déterminé à le récupérer, il le lui arrache. L'entendant pleurer, il lui rend le gland… sans se décider à le lâcher. Démarre alors une lutte au terme de laquelle il l'envoie plonger dans un ravin où il saute avec elle ; elle lui témoigne une certaine reconnaissance, toutefois elle lui ravit le gland et, se défilant, le laisse choir. Mais ce n'est que partie remise. Scrat la rattrape et, dans leur volonté de prendre possession du gland, tous deux tombent dans une mare de boue chaude. Le gland s'envolant dans une bulle, ils tentent par le même moyen de locomotion de l'atteindre. Scrat s'empare du gland au prix de la destruction de leurs bulles : les deux écureuils s'écrasent et traversent la glace avec le gland.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>L'Âge_de_glace_3_:_Le_Temps_des_dinosaures</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/L%27%C3%82ge_de_glace_3_:_Le_Temps_des_dinosaures</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Résumé</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Scrat</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film commence avec l'écureuil Scrat qui trouve son gland sur un rocher. Il l'atteint mais découvre cependant que le gland est parti, et le « voleur » s'avère être Scratina, une écureuil palmiste. Scrat est fasciné par sa beauté, mais quand il voit qu'elle a pris le gland, déterminé à le récupérer, il le lui arrache. L'entendant pleurer, il lui rend le gland… sans se décider à le lâcher. Démarre alors une lutte au terme de laquelle il l'envoie plonger dans un ravin où il saute avec elle ; elle lui témoigne une certaine reconnaissance, toutefois elle lui ravit le gland et, se défilant, le laisse choir. Mais ce n'est que partie remise. Scrat la rattrape et, dans leur volonté de prendre possession du gland, tous deux tombent dans une mare de boue chaude. Le gland s'envolant dans une bulle, ils tentent par le même moyen de locomotion de l'atteindre. Scrat s'empare du gland au prix de la destruction de leurs bulles : les deux écureuils s'écrasent et traversent la glace avec le gland.
 Scrat, englué sur la terre des dinosaures, tente de s'emparer du gland, mais Scratina, s'étant mieux réceptionnée, le lui arrache des mains (et de tout le corps). Scrat la rattrape une fois de plus et ils bataillent longuement, Scratina n'oubliant pas de se servir de son pouvoir de séduction. Finalement, elle saute avec le gland et Scrat s'accroche désespérément à elle, lui faisant heurter l'extrémité qu'elle voulait atteindre. Scrat, tout à la fois, rattrape Scratina assommée, le gland, et une racine dépassant de la paroi. Se servant de Scratina comme balancier et comme grappin, il gagne la terre ferme avec elle dans ses bras. Se réveillant et avisant la lave de laquelle elle vient d'échapper, elle considère Scrat comme son sauveur qui, par la même occasion, la tient dans une position romantique. Scrat, lui-même ébloui par son regard, néglige son gland pour la première fois de son existence et l'embrasse passionnément.
 Scrat et Scratina, tout à leurs ébats, s'amusent, redoublent de rêveries et de tendresse et finissent par se fiancer. Ils emménagent ensemble dans un tronc d'arbre mais, toujours manipulatrice et possessive, elle asservit Scrat qui, tenté à la vue de son gland à l'extérieur, s'échappe et court à son ancien amour. Scratina, furieuse, essaie de le détruire en le cassant. Ils finissent affalés sur le gland, qu'ils enfoncent… Un geyser de lave les soulève tous deux jusqu'au monde d'en haut. Avant de traverser la glace, Scrat se débarrasse de Scratina comme elle l'avait fait lors de leur première rencontre. Puis il la nargue en tenant son gland au-dessus du vide. Mais un bloc de glace rebouche le trou et emporte le gland, qui finit dans les mains de Scratina. Scrat, d'abord horrifié, frise la folie et pousse un long hurlement.
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>L%27%C3%82ge_de_glace_3_:_Le_Temps_des_dinosaures</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/L%27%C3%82ge_de_glace_3_:_Le_Temps_des_dinosaures</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>L'Âge_de_glace_3_:_Le_Temps_des_dinosaures</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/L%27%C3%82ge_de_glace_3_:_Le_Temps_des_dinosaures</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Titre original : Ice Age: Dawn of the dinosaurs
 Titre français : L'Âge de Glace 3 : Le Temps des dinosaures
 Titre québécois : L'ère de glace : L'aube des dinosaures
 Réalisation : Carlos Saldanha
-Co-réalisation : Mike Thurmeier [2]
+Co-réalisation : Mike Thurmeier 
 Scénario : Peter Ackerman, Michael Berg, Yoni Brenner, Mike Reiss et Jason Carter Eaton (histoire)
 Storyboard : Karen Disher
 Direction artistique : Mike Knapp
-Montage : Harry Hitner et James Palumbo [3]
+Montage : Harry Hitner et James Palumbo 
 Musique : John Powell
 Production : John C. Donkin et Lori Forte
 Sociétés de production : Twentieth Century Fox Film Corporation, Blue Sky Studios
@@ -585,34 +636,39 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>L%27%C3%82ge_de_glace_3_:_Le_Temps_des_dinosaures</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/L%27%C3%82ge_de_glace_3_:_Le_Temps_des_dinosaures</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>L'Âge_de_glace_3_:_Le_Temps_des_dinosaures</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/L%27%C3%82ge_de_glace_3_:_Le_Temps_des_dinosaures</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Voix originales
-Ray Romano : Manny
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Voix originales</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ray Romano : Manny
 John Leguizamo : Sid
 Denis Leary : Diego
 Simon Pegg : Buckminster « Buck »
@@ -648,8 +704,43 @@
 			Joey King
 			Jane Lynch
 			Kristen Wiig
-Voix françaises
-Gérard Lanvin : Manny
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>L'Âge_de_glace_3_:_Le_Temps_des_dinosaures</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/L%27%C3%82ge_de_glace_3_:_Le_Temps_des_dinosaures</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Voix françaises</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Gérard Lanvin : Manny
 Élie Semoun : Sid
 Vincent Cassel : Diego
 Emmanuel Curtil : Buckminster « Buck »
@@ -664,31 +755,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>L%27%C3%82ge_de_glace_3_:_Le_Temps_des_dinosaures</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/L%27%C3%82ge_de_glace_3_:_Le_Temps_des_dinosaures</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>L'Âge_de_glace_3_:_Le_Temps_des_dinosaures</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/L%27%C3%82ge_de_glace_3_:_Le_Temps_des_dinosaures</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Sorties cinéma</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">• Emirats Arabes Unis, Argentine, Autriche, Australie, Belgique, Bulgarie, Brésil, Canada, Suisse, République Tchèque, Allemagne, Danemark, Estonie, Égypte, Finlande, France , Royaume-Uni, Grèce, Hong Kong, Indonésie, Israël, Islande, Kazakhstan, Liban, Lituanie, Mexique, Malaisie, Pays-Bas, Norvège, Nouvelle-Zélande, Pérou, Portugal, Russie, Suède, Singapour, Slovénie, Syrie, Turquie, Taïwan, Ukraine, Uruguay, Venezuela et Afrique du Sud : 26 juin 2009
 • Espagne, Hongrie, Koweït, Pologne et Thaïlande : 2 juillet 2009
@@ -702,65 +795,13 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>L%27%C3%82ge_de_glace_3_:_Le_Temps_des_dinosaures</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/L%27%C3%82ge_de_glace_3_:_Le_Temps_des_dinosaures</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Bande originale</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>L%27%C3%82ge_de_glace_3_:_Le_Temps_des_dinosaures</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/L%27%C3%82ge_de_glace_3_:_Le_Temps_des_dinosaures</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Production</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
-    </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>L%27%C3%82ge_de_glace_3_:_Le_Temps_des_dinosaures</t>
+          <t>L'Âge_de_glace_3_:_Le_Temps_des_dinosaures</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,20 +816,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Accueil</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Réception
-Le 2 juillet 2009, le film avait une note de 45 % sur Rotten Tomatoes, basée sur 119 critiques, avec une note moyenne de 5,4 / 10[4]. Cependant, le célèbre critique de film Roger Ebert a donné une note de 3,5 / 4 au film, en disant « L'Âge de glace 3 est le meilleur des trois films sur les aventures de nos amis et de toute leur tribu de vaillants héros préhistoriques. De plus, il s'agit d'une des meilleures utilisations de la 3D que j'ai vu dans un film d'animation »[5].
-Box-office
-L'Âge de glace 3 : Le Temps des dinosaures a réalisé le meilleur démarrage aux États-Unis, un mercredi, pour un film d'animation, selon Box-Office Mojo. Le film a recueilli 13,8 millions de dollars US de recettes uniquement le 1er juillet, en battant le précédent record de Shrek 2, qui avait enregistré 11,8 millions de dollars de recettes le 19 mai 2004[6].
-Lors de ses premières séances de 14 h à Paris, le film réunit 15 615 personnes, soit le 4e plus gros démarrage de l'histoire[7]. Cela se confirma encore plus car lors de son seul premier jour d'exploitation, le film a rassemblé 767 099 personnes dans les salles françaises, soit le troisième meilleur démarrage de l'histoire derrière Spider-Man 3 et Taxi 2[8]. Durant ses cinq premiers jours d'exploitation en France, le film a rassemblé 2 403 734 spectateurs, ce qui l'a hissé, en 2009, à la première place du classement des films d'animation en fonction du box-office de leur première semaine en France[9].
-Le film bat deux records en France, celui du meilleur démarrage sur Paris-périphérie avec 179 991 entrées, battant Spider-Man 3 et le meilleur premier jour pour un film d'animation, battant ainsi Ratatouille[10].
-</t>
-        </is>
-      </c>
+          <t>Bande originale</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -796,7 +829,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>L%27%C3%82ge_de_glace_3_:_Le_Temps_des_dinosaures</t>
+          <t>L'Âge_de_glace_3_:_Le_Temps_des_dinosaures</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -811,10 +844,116 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>L'Âge_de_glace_3_:_Le_Temps_des_dinosaures</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/L%27%C3%82ge_de_glace_3_:_Le_Temps_des_dinosaures</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Accueil</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Réception</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 2 juillet 2009, le film avait une note de 45 % sur Rotten Tomatoes, basée sur 119 critiques, avec une note moyenne de 5,4 / 10. Cependant, le célèbre critique de film Roger Ebert a donné une note de 3,5 / 4 au film, en disant « L'Âge de glace 3 est le meilleur des trois films sur les aventures de nos amis et de toute leur tribu de vaillants héros préhistoriques. De plus, il s'agit d'une des meilleures utilisations de la 3D que j'ai vu dans un film d'animation ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>L'Âge_de_glace_3_:_Le_Temps_des_dinosaures</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/L%27%C3%82ge_de_glace_3_:_Le_Temps_des_dinosaures</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Accueil</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Box-office</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Âge de glace 3 : Le Temps des dinosaures a réalisé le meilleur démarrage aux États-Unis, un mercredi, pour un film d'animation, selon Box-Office Mojo. Le film a recueilli 13,8 millions de dollars US de recettes uniquement le 1er juillet, en battant le précédent record de Shrek 2, qui avait enregistré 11,8 millions de dollars de recettes le 19 mai 2004.
+Lors de ses premières séances de 14 h à Paris, le film réunit 15 615 personnes, soit le 4e plus gros démarrage de l'histoire. Cela se confirma encore plus car lors de son seul premier jour d'exploitation, le film a rassemblé 767 099 personnes dans les salles françaises, soit le troisième meilleur démarrage de l'histoire derrière Spider-Man 3 et Taxi 2. Durant ses cinq premiers jours d'exploitation en France, le film a rassemblé 2 403 734 spectateurs, ce qui l'a hissé, en 2009, à la première place du classement des films d'animation en fonction du box-office de leur première semaine en France.
+Le film bat deux records en France, celui du meilleur démarrage sur Paris-périphérie avec 179 991 entrées, battant Spider-Man 3 et le meilleur premier jour pour un film d'animation, battant ainsi Ratatouille.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>L'Âge_de_glace_3_:_Le_Temps_des_dinosaures</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/L%27%C3%82ge_de_glace_3_:_Le_Temps_des_dinosaures</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>Autour du film</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
